--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -459,10 +459,10 @@
         <v>20000</v>
       </c>
       <c r="D2" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="E2" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="3">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C4" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C5" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C6" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C7" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C8" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="9">
@@ -578,10 +578,10 @@
         <v>20000</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E9" t="n">
-        <v>45000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="10">
@@ -595,10 +595,10 @@
         <v>20000</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E10" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="11">

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -459,10 +459,10 @@
         <v>20000</v>
       </c>
       <c r="D2" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C3" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="4">
@@ -578,10 +578,10 @@
         <v>20000</v>
       </c>
       <c r="D9" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="10">
@@ -850,10 +850,10 @@
         <v>20000</v>
       </c>
       <c r="D25" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="E25" t="n">
-        <v>65000</v>
+        <v>57000</v>
       </c>
     </row>
   </sheetData>

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C3" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C4" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C5" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C6" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C7" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C8" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="9">
@@ -578,10 +578,10 @@
         <v>20000</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E9" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="10">
@@ -850,10 +850,10 @@
         <v>20000</v>
       </c>
       <c r="D25" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="E25" t="n">
-        <v>57000</v>
+        <v>65000</v>
       </c>
     </row>
   </sheetData>

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C8" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C9" t="n">
         <v>20000</v>
       </c>
       <c r="D9" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>55000</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="10">
@@ -595,10 +595,10 @@
         <v>20000</v>
       </c>
       <c r="D10" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="11">
@@ -612,10 +612,10 @@
         <v>20000</v>
       </c>
       <c r="D11" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="12">
@@ -850,10 +850,10 @@
         <v>20000</v>
       </c>
       <c r="D25" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="E25" t="n">
-        <v>65000</v>
+        <v>60000</v>
       </c>
     </row>
   </sheetData>

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -459,10 +459,10 @@
         <v>20000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E2" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="3">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C4" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C5" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C6" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C7" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="8">
@@ -575,13 +575,13 @@
         <v>12500</v>
       </c>
       <c r="C9" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="10">
@@ -595,10 +595,10 @@
         <v>20000</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E10" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="11">
@@ -612,10 +612,10 @@
         <v>20000</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E11" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="12">
@@ -850,10 +850,10 @@
         <v>20000</v>
       </c>
       <c r="D25" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="E25" t="n">
-        <v>60000</v>
+        <v>65000</v>
       </c>
     </row>
   </sheetData>

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C4" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C5" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C6" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C7" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="8">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C9" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="10">

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -476,10 +476,10 @@
         <v>20000</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E3" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="4">
@@ -493,10 +493,10 @@
         <v>20000</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E4" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="5">
@@ -510,10 +510,10 @@
         <v>20000</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E5" t="n">
-        <v>45000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="6">
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C6" t="n">
         <v>20000</v>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>45000</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C7" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="8">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C9" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C10" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D10" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>65000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C11" t="n">
         <v>20000</v>
       </c>
       <c r="D11" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>65000</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="12">
@@ -629,10 +629,10 @@
         <v>20000</v>
       </c>
       <c r="D12" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="13">
@@ -646,10 +646,10 @@
         <v>20000</v>
       </c>
       <c r="D13" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="E13" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="14">
@@ -663,10 +663,10 @@
         <v>20000</v>
       </c>
       <c r="D14" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E14" t="n">
-        <v>65000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="15">

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -476,10 +476,10 @@
         <v>20000</v>
       </c>
       <c r="D3" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="4">
@@ -493,10 +493,10 @@
         <v>20000</v>
       </c>
       <c r="D4" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="5">
@@ -510,10 +510,10 @@
         <v>20000</v>
       </c>
       <c r="D5" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="6">
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C6" t="n">
         <v>20000</v>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>32500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C7" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="8">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C9" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E10" t="n">
-        <v>22500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C11" t="n">
         <v>20000</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E11" t="n">
-        <v>32500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="12">
@@ -629,10 +629,10 @@
         <v>20000</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E12" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="13">
@@ -646,10 +646,10 @@
         <v>20000</v>
       </c>
       <c r="D13" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="E13" t="n">
-        <v>50000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="14">
@@ -663,10 +663,10 @@
         <v>20000</v>
       </c>
       <c r="D14" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E14" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="15">

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -459,10 +459,10 @@
         <v>20000</v>
       </c>
       <c r="D2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="E2" t="n">
-        <v>65000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         <v>20000</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E3" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="4">
@@ -493,10 +493,10 @@
         <v>20000</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E4" t="n">
-        <v>45000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="5">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C7" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="8">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C9" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C10" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D10" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>65000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C11" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D11" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>65000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="12">
@@ -629,10 +629,10 @@
         <v>20000</v>
       </c>
       <c r="D12" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="13">
@@ -646,10 +646,10 @@
         <v>20000</v>
       </c>
       <c r="D13" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="14">
@@ -663,10 +663,10 @@
         <v>20000</v>
       </c>
       <c r="D14" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E14" t="n">
-        <v>65000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="15">

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -459,10 +459,10 @@
         <v>20000</v>
       </c>
       <c r="D2" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>60000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         <v>20000</v>
       </c>
       <c r="D3" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>55000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C4" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D4" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>50000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C5" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="6">
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C6" t="n">
         <v>20000</v>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>45000</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="7">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E10" t="n">
-        <v>22500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C11" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E11" t="n">
-        <v>22500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="12">
@@ -629,10 +629,10 @@
         <v>20000</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E12" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="13">
@@ -646,10 +646,10 @@
         <v>20000</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E13" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="14">
@@ -663,10 +663,10 @@
         <v>20000</v>
       </c>
       <c r="D14" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E14" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="15">

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -459,10 +459,10 @@
         <v>20000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E2" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         <v>20000</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E3" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C4" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C5" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="6">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C10" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D10" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>65000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C11" t="n">
         <v>20000</v>
       </c>
       <c r="D11" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>65000</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="12">
@@ -629,10 +629,10 @@
         <v>20000</v>
       </c>
       <c r="D12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E12" t="n">
-        <v>65000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="13">

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C2" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D2" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>65000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C3" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D3" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>55000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C4" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C5" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="6">
@@ -524,13 +524,13 @@
         <v>12500</v>
       </c>
       <c r="C6" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="7">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="E10" t="n">
-        <v>22500</v>
+        <v>57000</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C11" t="n">
         <v>20000</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E11" t="n">
-        <v>32500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="12">
@@ -629,10 +629,10 @@
         <v>20000</v>
       </c>
       <c r="D12" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E12" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="13">

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D2" t="n">
         <v>10000</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>22500</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="3">
@@ -595,10 +595,10 @@
         <v>20000</v>
       </c>
       <c r="D10" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="E10" t="n">
-        <v>57000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="11">

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C2" t="n">
         <v>20000</v>
@@ -462,7 +462,7 @@
         <v>10000</v>
       </c>
       <c r="E2" t="n">
-        <v>55000</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="3">

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C2" t="n">
         <v>20000</v>
       </c>
       <c r="D2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="3">
@@ -595,10 +595,10 @@
         <v>20000</v>
       </c>
       <c r="D10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E10" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="11">

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>PEDC</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>TOTAL_BCQ</t>
         </is>
       </c>
@@ -453,16 +458,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C2" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E2" t="n">
-        <v>45000</v>
+        <v>5000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>47500</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +484,13 @@
         <v>10000</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E3" t="n">
-        <v>22500</v>
+        <v>5000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>37500</v>
       </c>
     </row>
     <row r="4">
@@ -496,7 +507,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22500</v>
+        <v>5000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27500</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +527,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>22500</v>
+        <v>5000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27500</v>
       </c>
     </row>
     <row r="6">
@@ -530,7 +547,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>22500</v>
+        <v>5000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>27500</v>
       </c>
     </row>
     <row r="7">
@@ -547,7 +567,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>22500</v>
+        <v>5000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>27500</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +587,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>22500</v>
+        <v>5000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>27500</v>
       </c>
     </row>
     <row r="9">
@@ -581,7 +607,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>22500</v>
+        <v>5000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>27500</v>
       </c>
     </row>
     <row r="10">
@@ -598,7 +627,10 @@
         <v>20000</v>
       </c>
       <c r="E10" t="n">
-        <v>65000</v>
+        <v>5000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>70000</v>
       </c>
     </row>
     <row r="11">
@@ -615,7 +647,10 @@
         <v>20000</v>
       </c>
       <c r="E11" t="n">
-        <v>65000</v>
+        <v>5000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>70000</v>
       </c>
     </row>
     <row r="12">
@@ -632,7 +667,10 @@
         <v>20000</v>
       </c>
       <c r="E12" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="13">
@@ -649,7 +687,10 @@
         <v>20000</v>
       </c>
       <c r="E13" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="14">
@@ -666,7 +707,10 @@
         <v>20000</v>
       </c>
       <c r="E14" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="15">
@@ -683,7 +727,10 @@
         <v>20000</v>
       </c>
       <c r="E15" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="16">
@@ -700,7 +747,10 @@
         <v>20000</v>
       </c>
       <c r="E16" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="17">
@@ -717,7 +767,10 @@
         <v>20000</v>
       </c>
       <c r="E17" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="18">
@@ -734,7 +787,10 @@
         <v>20000</v>
       </c>
       <c r="E18" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="19">
@@ -751,7 +807,10 @@
         <v>20000</v>
       </c>
       <c r="E19" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="20">
@@ -768,7 +827,10 @@
         <v>20000</v>
       </c>
       <c r="E20" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="21">
@@ -785,7 +847,10 @@
         <v>20000</v>
       </c>
       <c r="E21" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="22">
@@ -802,7 +867,10 @@
         <v>20000</v>
       </c>
       <c r="E22" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="23">
@@ -819,7 +887,10 @@
         <v>20000</v>
       </c>
       <c r="E23" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="24">
@@ -836,7 +907,10 @@
         <v>20000</v>
       </c>
       <c r="E24" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="25">
@@ -844,16 +918,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C25" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D25" t="n">
         <v>20000</v>
       </c>
       <c r="E25" t="n">
-        <v>65000</v>
+        <v>5000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>47500</v>
       </c>
     </row>
   </sheetData>

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,10 +467,10 @@
         <v>20000</v>
       </c>
       <c r="E2" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F2" t="n">
-        <v>47500</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         <v>10000</v>
       </c>
       <c r="D3" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E3" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>37500</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="4">
@@ -507,10 +507,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>27500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="5">
@@ -527,10 +527,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>27500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="6">
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>27500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="7">
@@ -567,10 +567,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>27500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="8">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>27500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="9">
@@ -607,10 +607,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>27500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="10">
@@ -618,19 +618,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C10" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D10" t="n">
         <v>20000</v>
       </c>
       <c r="E10" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>70000</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="11">
@@ -638,19 +638,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C11" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D11" t="n">
         <v>20000</v>
       </c>
       <c r="E11" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>70000</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="12">
@@ -658,19 +658,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D12" t="n">
         <v>20000</v>
       </c>
       <c r="E12" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>75000</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="13">
@@ -678,19 +678,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C13" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D13" t="n">
         <v>20000</v>
       </c>
       <c r="E13" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>75000</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="14">
@@ -698,10 +698,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C14" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D14" t="n">
         <v>20000</v>
@@ -710,7 +710,7 @@
         <v>10000</v>
       </c>
       <c r="F14" t="n">
-        <v>75000</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="15">
@@ -918,19 +918,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C25" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D25" t="n">
         <v>20000</v>
       </c>
       <c r="E25" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F25" t="n">
-        <v>47500</v>
+        <v>75000</v>
       </c>
     </row>
   </sheetData>

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -458,10 +458,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="C2" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D2" t="n">
         <v>20000</v>
@@ -470,7 +470,7 @@
         <v>10000</v>
       </c>
       <c r="F2" t="n">
-        <v>52500</v>
+        <v>66500</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         <v>10000</v>
       </c>
       <c r="D3" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>42500</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="4">
@@ -544,13 +544,13 @@
         <v>10000</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="7">
@@ -564,13 +564,13 @@
         <v>10000</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +584,13 @@
         <v>10000</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="9">
@@ -604,13 +604,13 @@
         <v>10000</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="10">
@@ -667,10 +667,10 @@
         <v>20000</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F12" t="n">
-        <v>42500</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="13">
@@ -687,10 +687,10 @@
         <v>20000</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F13" t="n">
-        <v>42500</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="14">
@@ -918,7 +918,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>25000</v>
+        <v>22500</v>
       </c>
       <c r="C25" t="n">
         <v>20000</v>
@@ -930,7 +930,7 @@
         <v>10000</v>
       </c>
       <c r="F25" t="n">
-        <v>75000</v>
+        <v>72500</v>
       </c>
     </row>
   </sheetData>

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -458,19 +458,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="C2" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D2" t="n">
         <v>20000</v>
       </c>
       <c r="E2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>66500</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         <v>10000</v>
       </c>
       <c r="D3" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="4">
@@ -544,13 +544,13 @@
         <v>10000</v>
       </c>
       <c r="D6" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="7">
@@ -564,13 +564,13 @@
         <v>10000</v>
       </c>
       <c r="D7" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +584,13 @@
         <v>10000</v>
       </c>
       <c r="D8" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="9">
@@ -604,13 +604,13 @@
         <v>10000</v>
       </c>
       <c r="D9" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="C23" t="n">
         <v>20000</v>
@@ -890,7 +890,7 @@
         <v>10000</v>
       </c>
       <c r="F23" t="n">
-        <v>75000</v>
+        <v>74000</v>
       </c>
     </row>
     <row r="24">
@@ -898,7 +898,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="C24" t="n">
         <v>20000</v>
@@ -910,7 +910,7 @@
         <v>10000</v>
       </c>
       <c r="F24" t="n">
-        <v>75000</v>
+        <v>71000</v>
       </c>
     </row>
     <row r="25">
@@ -918,7 +918,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>22500</v>
+        <v>17500</v>
       </c>
       <c r="C25" t="n">
         <v>20000</v>
@@ -930,7 +930,7 @@
         <v>10000</v>
       </c>
       <c r="F25" t="n">
-        <v>72500</v>
+        <v>67500</v>
       </c>
     </row>
   </sheetData>

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -458,19 +458,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C2" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D2" t="n">
         <v>20000</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F2" t="n">
-        <v>42500</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="3">
@@ -564,13 +564,13 @@
         <v>10000</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +584,13 @@
         <v>10000</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="9">
@@ -604,13 +604,13 @@
         <v>10000</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="10">
@@ -667,10 +667,10 @@
         <v>20000</v>
       </c>
       <c r="E12" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>52500</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="13">
@@ -687,10 +687,10 @@
         <v>20000</v>
       </c>
       <c r="E13" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>52500</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="14">
@@ -707,10 +707,10 @@
         <v>20000</v>
       </c>
       <c r="E14" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>52500</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="15">
@@ -878,7 +878,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="C23" t="n">
         <v>20000</v>
@@ -890,7 +890,7 @@
         <v>10000</v>
       </c>
       <c r="F23" t="n">
-        <v>74000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="24">
@@ -898,7 +898,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="C24" t="n">
         <v>20000</v>
@@ -910,7 +910,7 @@
         <v>10000</v>
       </c>
       <c r="F24" t="n">
-        <v>71000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="25">
@@ -918,10 +918,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="C25" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D25" t="n">
         <v>20000</v>
@@ -930,7 +930,7 @@
         <v>10000</v>
       </c>
       <c r="F25" t="n">
-        <v>67500</v>
+        <v>65000</v>
       </c>
     </row>
   </sheetData>

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>25000</v>
+        <v>16500</v>
       </c>
       <c r="C2" t="n">
         <v>20000</v>
@@ -470,7 +470,7 @@
         <v>10000</v>
       </c>
       <c r="F2" t="n">
-        <v>75000</v>
+        <v>66500</v>
       </c>
     </row>
     <row r="3">
@@ -478,19 +478,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="C3" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F3" t="n">
-        <v>22500</v>
+        <v>63500</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         <v>10000</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="5">
@@ -524,13 +524,13 @@
         <v>10000</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="6">
@@ -564,13 +564,13 @@
         <v>10000</v>
       </c>
       <c r="D7" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>42500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +584,13 @@
         <v>10000</v>
       </c>
       <c r="D8" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>42500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="9">
@@ -604,13 +604,13 @@
         <v>10000</v>
       </c>
       <c r="D9" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>42500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="10">
@@ -624,13 +624,13 @@
         <v>10000</v>
       </c>
       <c r="D10" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>42500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="11">
@@ -644,13 +644,13 @@
         <v>10000</v>
       </c>
       <c r="D11" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>42500</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="12">
@@ -664,13 +664,13 @@
         <v>10000</v>
       </c>
       <c r="D12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>42500</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="13">
@@ -684,13 +684,13 @@
         <v>10000</v>
       </c>
       <c r="D13" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>42500</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="14">
@@ -704,13 +704,13 @@
         <v>10000</v>
       </c>
       <c r="D14" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>42500</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C15" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D15" t="n">
         <v>20000</v>
@@ -730,7 +730,7 @@
         <v>10000</v>
       </c>
       <c r="F15" t="n">
-        <v>75000</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="16">
@@ -898,7 +898,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="C24" t="n">
         <v>20000</v>
@@ -910,7 +910,7 @@
         <v>10000</v>
       </c>
       <c r="F24" t="n">
-        <v>75000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="25">
@@ -918,7 +918,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C25" t="n">
         <v>10000</v>
@@ -930,7 +930,7 @@
         <v>10000</v>
       </c>
       <c r="F25" t="n">
-        <v>65000</v>
+        <v>52500</v>
       </c>
     </row>
   </sheetData>

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,11 +444,6 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>PEDC</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
           <t>TOTAL_BCQ</t>
         </is>
       </c>
@@ -458,19 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>16500</v>
+        <v>25000</v>
       </c>
       <c r="C2" t="n">
         <v>20000</v>
       </c>
       <c r="D2" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="E2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F2" t="n">
-        <v>66500</v>
+        <v>57000</v>
       </c>
     </row>
     <row r="3">
@@ -478,19 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13500</v>
+        <v>25000</v>
       </c>
       <c r="C3" t="n">
         <v>20000</v>
       </c>
       <c r="D3" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F3" t="n">
-        <v>63500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="4">
@@ -498,19 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C4" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D4" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>42500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="5">
@@ -518,19 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C5" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D5" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>42500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="6">
@@ -538,19 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C6" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="7">
@@ -558,19 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C7" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="8">
@@ -587,9 +564,6 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
         <v>22500</v>
       </c>
     </row>
@@ -598,19 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C9" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="10">
@@ -618,19 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="11">
@@ -638,19 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C11" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D11" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>32500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="12">
@@ -658,19 +623,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C12" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D12" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>32500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="13">
@@ -678,19 +640,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C13" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D13" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>32500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="14">
@@ -698,19 +657,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C14" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D14" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>32500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="15">
@@ -718,19 +674,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C15" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D15" t="n">
         <v>20000</v>
       </c>
       <c r="E15" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>52500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="16">
@@ -747,10 +700,7 @@
         <v>20000</v>
       </c>
       <c r="E16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F16" t="n">
-        <v>75000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="17">
@@ -767,10 +717,7 @@
         <v>20000</v>
       </c>
       <c r="E17" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F17" t="n">
-        <v>75000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="18">
@@ -787,10 +734,7 @@
         <v>20000</v>
       </c>
       <c r="E18" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F18" t="n">
-        <v>75000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="19">
@@ -807,10 +751,7 @@
         <v>20000</v>
       </c>
       <c r="E19" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>75000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="20">
@@ -827,10 +768,7 @@
         <v>20000</v>
       </c>
       <c r="E20" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F20" t="n">
-        <v>75000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="21">
@@ -847,10 +785,7 @@
         <v>20000</v>
       </c>
       <c r="E21" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F21" t="n">
-        <v>75000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="22">
@@ -867,10 +802,7 @@
         <v>20000</v>
       </c>
       <c r="E22" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F22" t="n">
-        <v>75000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="23">
@@ -887,10 +819,7 @@
         <v>20000</v>
       </c>
       <c r="E23" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F23" t="n">
-        <v>75000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="24">
@@ -898,7 +827,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="C24" t="n">
         <v>20000</v>
@@ -907,10 +836,7 @@
         <v>20000</v>
       </c>
       <c r="E24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F24" t="n">
-        <v>72000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="25">
@@ -918,19 +844,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C25" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D25" t="n">
         <v>20000</v>
       </c>
       <c r="E25" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F25" t="n">
-        <v>52500</v>
+        <v>65000</v>
       </c>
     </row>
   </sheetData>

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>PEDC</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>TOTAL_BCQ</t>
         </is>
       </c>
@@ -453,16 +458,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>25000</v>
+        <v>16500</v>
       </c>
       <c r="C2" t="n">
         <v>20000</v>
       </c>
       <c r="D2" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="E2" t="n">
-        <v>57000</v>
+        <v>10000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>66500</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +478,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>25000</v>
+        <v>13500</v>
       </c>
       <c r="C3" t="n">
         <v>20000</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E3" t="n">
-        <v>45000</v>
+        <v>10000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>63500</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +498,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C4" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E4" t="n">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>42500</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +518,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C5" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E5" t="n">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>42500</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +538,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C6" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>22500</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +558,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C7" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22500</v>
       </c>
     </row>
     <row r="8">
@@ -564,6 +587,9 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>22500</v>
       </c>
     </row>
@@ -572,16 +598,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C9" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>22500</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +618,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C10" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>22500</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +638,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C11" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D11" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E11" t="n">
-        <v>65000</v>
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>32500</v>
       </c>
     </row>
     <row r="12">
@@ -623,16 +658,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E12" t="n">
-        <v>65000</v>
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>32500</v>
       </c>
     </row>
     <row r="13">
@@ -640,16 +678,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C13" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D13" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E13" t="n">
-        <v>65000</v>
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>32500</v>
       </c>
     </row>
     <row r="14">
@@ -657,16 +698,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C14" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D14" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E14" t="n">
-        <v>65000</v>
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>32500</v>
       </c>
     </row>
     <row r="15">
@@ -674,16 +718,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C15" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D15" t="n">
         <v>20000</v>
       </c>
       <c r="E15" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>52500</v>
       </c>
     </row>
     <row r="16">
@@ -700,7 +747,10 @@
         <v>20000</v>
       </c>
       <c r="E16" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="17">
@@ -717,7 +767,10 @@
         <v>20000</v>
       </c>
       <c r="E17" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="18">
@@ -734,7 +787,10 @@
         <v>20000</v>
       </c>
       <c r="E18" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="19">
@@ -751,7 +807,10 @@
         <v>20000</v>
       </c>
       <c r="E19" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="20">
@@ -768,7 +827,10 @@
         <v>20000</v>
       </c>
       <c r="E20" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="21">
@@ -785,7 +847,10 @@
         <v>20000</v>
       </c>
       <c r="E21" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="22">
@@ -802,7 +867,10 @@
         <v>20000</v>
       </c>
       <c r="E22" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="23">
@@ -819,7 +887,10 @@
         <v>20000</v>
       </c>
       <c r="E23" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="24">
@@ -827,7 +898,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="C24" t="n">
         <v>20000</v>
@@ -836,7 +907,10 @@
         <v>20000</v>
       </c>
       <c r="E24" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>72000</v>
       </c>
     </row>
     <row r="25">
@@ -844,16 +918,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C25" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D25" t="n">
         <v>20000</v>
       </c>
       <c r="E25" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>52500</v>
       </c>
     </row>
   </sheetData>

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -458,19 +458,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="C2" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D2" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>66500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="3">
@@ -478,19 +478,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="C3" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D3" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>63500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         <v>10000</v>
       </c>
       <c r="D4" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>42500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="5">
@@ -524,13 +524,13 @@
         <v>10000</v>
       </c>
       <c r="D5" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>42500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="6">
@@ -644,13 +644,13 @@
         <v>10000</v>
       </c>
       <c r="D11" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="12">
@@ -664,13 +664,13 @@
         <v>10000</v>
       </c>
       <c r="D12" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="13">
@@ -684,13 +684,13 @@
         <v>10000</v>
       </c>
       <c r="D13" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="14">
@@ -704,13 +704,13 @@
         <v>10000</v>
       </c>
       <c r="D14" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="15">
@@ -724,13 +724,13 @@
         <v>10000</v>
       </c>
       <c r="D15" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>52500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="16">
@@ -738,19 +738,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C16" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D16" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>75000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="17">
@@ -758,19 +758,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C17" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D17" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>75000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="18">
@@ -778,10 +778,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C18" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D18" t="n">
         <v>20000</v>
@@ -790,7 +790,7 @@
         <v>10000</v>
       </c>
       <c r="F18" t="n">
-        <v>75000</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="19">
@@ -878,10 +878,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C23" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D23" t="n">
         <v>20000</v>
@@ -890,7 +890,7 @@
         <v>10000</v>
       </c>
       <c r="F23" t="n">
-        <v>75000</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="24">
@@ -898,19 +898,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>22000</v>
+        <v>12500</v>
       </c>
       <c r="C24" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D24" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>72000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="25">
@@ -924,13 +924,13 @@
         <v>10000</v>
       </c>
       <c r="D25" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>52500</v>
+        <v>22500</v>
       </c>
     </row>
   </sheetData>

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -564,13 +564,13 @@
         <v>10000</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +584,13 @@
         <v>10000</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="9">
@@ -604,13 +604,13 @@
         <v>10000</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="10">
@@ -624,13 +624,13 @@
         <v>10000</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="11">
@@ -644,13 +644,13 @@
         <v>10000</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="12">
@@ -664,13 +664,13 @@
         <v>10000</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="13">
@@ -684,13 +684,13 @@
         <v>10000</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="14">
@@ -704,13 +704,13 @@
         <v>10000</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="15">
@@ -724,13 +724,13 @@
         <v>10000</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F15" t="n">
-        <v>22500</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="16">
@@ -744,13 +744,13 @@
         <v>10000</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F16" t="n">
-        <v>22500</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="17">
@@ -764,13 +764,13 @@
         <v>10000</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F17" t="n">
-        <v>22500</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="18">
@@ -778,10 +778,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C18" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D18" t="n">
         <v>20000</v>
@@ -790,7 +790,7 @@
         <v>10000</v>
       </c>
       <c r="F18" t="n">
-        <v>52500</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="19">
@@ -878,10 +878,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C23" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D23" t="n">
         <v>20000</v>
@@ -890,7 +890,7 @@
         <v>10000</v>
       </c>
       <c r="F23" t="n">
-        <v>52500</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="24">
@@ -904,13 +904,13 @@
         <v>10000</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F24" t="n">
-        <v>22500</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="25">
@@ -924,13 +924,13 @@
         <v>10000</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
     </row>
   </sheetData>

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,11 +444,6 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>PEDC</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
           <t>TOTAL_BCQ</t>
         </is>
       </c>
@@ -458,19 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C2" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>22500</v>
+        <v>57000</v>
       </c>
     </row>
     <row r="3">
@@ -478,19 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C3" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="4">
@@ -498,19 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C4" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="5">
@@ -518,19 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C5" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="6">
@@ -538,19 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C6" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="7">
@@ -558,19 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C7" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D7" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>32500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +561,10 @@
         <v>10000</v>
       </c>
       <c r="D8" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="9">
@@ -598,19 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C9" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D9" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>32500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="10">
@@ -618,19 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C10" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D10" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>42500</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="11">
@@ -638,19 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C11" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D11" t="n">
         <v>20000</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>42500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="12">
@@ -658,19 +623,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C12" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D12" t="n">
         <v>20000</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>42500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="13">
@@ -678,19 +640,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C13" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D13" t="n">
         <v>20000</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>42500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="14">
@@ -698,19 +657,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C14" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D14" t="n">
         <v>20000</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>42500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="15">
@@ -718,19 +674,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C15" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D15" t="n">
         <v>20000</v>
       </c>
       <c r="E15" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>52500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="16">
@@ -738,19 +691,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C16" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D16" t="n">
         <v>20000</v>
       </c>
       <c r="E16" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F16" t="n">
-        <v>52500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="17">
@@ -758,19 +708,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C17" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D17" t="n">
         <v>20000</v>
       </c>
       <c r="E17" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F17" t="n">
-        <v>52500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="18">
@@ -787,10 +734,7 @@
         <v>20000</v>
       </c>
       <c r="E18" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F18" t="n">
-        <v>75000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="19">
@@ -807,10 +751,7 @@
         <v>20000</v>
       </c>
       <c r="E19" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>75000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="20">
@@ -827,10 +768,7 @@
         <v>20000</v>
       </c>
       <c r="E20" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F20" t="n">
-        <v>75000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="21">
@@ -847,10 +785,7 @@
         <v>20000</v>
       </c>
       <c r="E21" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F21" t="n">
-        <v>75000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="22">
@@ -867,10 +802,7 @@
         <v>20000</v>
       </c>
       <c r="E22" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F22" t="n">
-        <v>75000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="23">
@@ -887,10 +819,7 @@
         <v>20000</v>
       </c>
       <c r="E23" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F23" t="n">
-        <v>75000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="24">
@@ -898,19 +827,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C24" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D24" t="n">
         <v>20000</v>
       </c>
       <c r="E24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F24" t="n">
-        <v>52500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="25">
@@ -918,19 +844,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="C25" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D25" t="n">
         <v>20000</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>42500</v>
+        <v>65000</v>
       </c>
     </row>
   </sheetData>

--- a/total_bcq_nomination.xlsx
+++ b/total_bcq_nomination.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>PEDC</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>TOTAL_BCQ</t>
         </is>
       </c>
@@ -453,16 +458,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C2" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D2" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57000</v>
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>22500</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +478,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C3" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>22500</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +498,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C4" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22500</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +518,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C5" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>22500</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +538,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C6" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>22500</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +558,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C7" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E7" t="n">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>32500</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +584,13 @@
         <v>10000</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E8" t="n">
-        <v>22500</v>
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>32500</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +598,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C9" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E9" t="n">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>32500</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +618,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C10" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E10" t="n">
-        <v>45000</v>
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>42500</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +638,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C11" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D11" t="n">
         <v>20000</v>
       </c>
       <c r="E11" t="n">
-        <v>65000</v>
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>42500</v>
       </c>
     </row>
     <row r="12">
@@ -623,16 +658,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D12" t="n">
         <v>20000</v>
       </c>
       <c r="E12" t="n">
-        <v>65000</v>
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>42500</v>
       </c>
     </row>
     <row r="13">
@@ -640,16 +678,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C13" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D13" t="n">
         <v>20000</v>
       </c>
       <c r="E13" t="n">
-        <v>65000</v>
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>42500</v>
       </c>
     </row>
     <row r="14">
@@ -657,16 +698,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C14" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D14" t="n">
         <v>20000</v>
       </c>
       <c r="E14" t="n">
-        <v>65000</v>
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>42500</v>
       </c>
     </row>
     <row r="15">
@@ -674,16 +718,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C15" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D15" t="n">
         <v>20000</v>
       </c>
       <c r="E15" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>52500</v>
       </c>
     </row>
     <row r="16">
@@ -691,16 +738,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C16" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D16" t="n">
         <v>20000</v>
       </c>
       <c r="E16" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>52500</v>
       </c>
     </row>
     <row r="17">
@@ -708,16 +758,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C17" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D17" t="n">
         <v>20000</v>
       </c>
       <c r="E17" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>52500</v>
       </c>
     </row>
     <row r="18">
@@ -734,7 +787,10 @@
         <v>20000</v>
       </c>
       <c r="E18" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="19">
@@ -751,7 +807,10 @@
         <v>20000</v>
       </c>
       <c r="E19" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="20">
@@ -768,7 +827,10 @@
         <v>20000</v>
       </c>
       <c r="E20" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="21">
@@ -785,7 +847,10 @@
         <v>20000</v>
       </c>
       <c r="E21" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="22">
@@ -802,7 +867,10 @@
         <v>20000</v>
       </c>
       <c r="E22" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="23">
@@ -819,7 +887,10 @@
         <v>20000</v>
       </c>
       <c r="E23" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="24">
@@ -827,16 +898,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C24" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D24" t="n">
         <v>20000</v>
       </c>
       <c r="E24" t="n">
-        <v>65000</v>
+        <v>10000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>52500</v>
       </c>
     </row>
     <row r="25">
@@ -844,16 +918,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="C25" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D25" t="n">
         <v>20000</v>
       </c>
       <c r="E25" t="n">
-        <v>65000</v>
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>42500</v>
       </c>
     </row>
   </sheetData>
